--- a/examples/feature-tables/Imbalanced Learn Parameters.xlsx
+++ b/examples/feature-tables/Imbalanced Learn Parameters.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AIA-2018\examples\feature-tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1762A68B-5707-495E-8141-0F38DCE6A395}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SVM No LBP" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="SVM LBP" sheetId="2" r:id="rId4"/>
+    <sheet name="No LBP" sheetId="1" r:id="rId1"/>
+    <sheet name="LBP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -107,27 +116,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -149,106 +163,391 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.57"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.27734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -283,15 +582,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -299,7 +600,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
@@ -308,25 +609,25 @@
         <v>15</v>
       </c>
       <c r="F3" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3">
         <v>0.93</v>
       </c>
       <c r="I3" s="3">
-        <v>0.54829</v>
+        <v>0.54829000000000006</v>
       </c>
       <c r="J3" s="5">
         <v>0.938790877172619</v>
       </c>
       <c r="K3" s="5">
-        <v>0.561845174973488</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.56184517497348796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -334,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="8">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>16</v>
@@ -343,25 +644,25 @@
         <v>15</v>
       </c>
       <c r="F4" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="9">
         <v>0.93</v>
       </c>
       <c r="I4" s="9">
-        <v>0.56185</v>
+        <v>0.56184999999999996</v>
       </c>
       <c r="J4" s="12">
-        <v>0.938689318979775</v>
+        <v>0.93868931897977503</v>
       </c>
       <c r="K4" s="12">
-        <v>0.57255567338282</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.57255567338281999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -369,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -378,25 +679,25 @@
         <v>15</v>
       </c>
       <c r="F5" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3">
         <v>0.92</v>
       </c>
       <c r="I5" s="3">
-        <v>0.53483</v>
+        <v>0.53483000000000003</v>
       </c>
       <c r="J5" s="5">
         <v>0.938052404027507</v>
       </c>
       <c r="K5" s="5">
-        <v>0.56033934252386</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.56033934252385997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -404,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -413,25 +714,25 @@
         <v>15</v>
       </c>
       <c r="F6" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3">
         <v>0.92</v>
       </c>
       <c r="I6" s="3">
-        <v>0.54844</v>
+        <v>0.54844000000000004</v>
       </c>
       <c r="J6" s="5">
-        <v>0.937990018280474</v>
+        <v>0.93799001828047401</v>
       </c>
       <c r="K6" s="5">
-        <v>0.564984093319194</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.56498409331919397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -457,16 +758,16 @@
         <v>0.94</v>
       </c>
       <c r="I7" s="3">
-        <v>0.57211</v>
+        <v>0.57211000000000001</v>
       </c>
       <c r="J7" s="5">
-        <v>0.937976960798537</v>
+        <v>0.93797696079853699</v>
       </c>
       <c r="K7" s="5">
-        <v>0.560318133616118</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.56031813361611804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -474,7 +775,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -483,25 +784,25 @@
         <v>15</v>
       </c>
       <c r="F8" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G8" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3">
         <v>0.92</v>
       </c>
       <c r="I8" s="3">
-        <v>0.53544</v>
+        <v>0.53544000000000003</v>
       </c>
       <c r="J8" s="5">
-        <v>0.937509793111452</v>
+        <v>0.93750979311145199</v>
       </c>
       <c r="K8" s="5">
-        <v>0.558748674443266</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.55874867444326604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -509,7 +810,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -518,25 +819,25 @@
         <v>15</v>
       </c>
       <c r="F9" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
         <v>0.93</v>
       </c>
       <c r="I9" s="3">
-        <v>0.5596</v>
+        <v>0.55959999999999999</v>
       </c>
       <c r="J9" s="5">
-        <v>0.937488030641557</v>
+        <v>0.93748803064155695</v>
       </c>
       <c r="K9" s="5">
-        <v>0.556161187698833</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.55616118769883305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -544,7 +845,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -553,10 +854,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3">
         <v>0.92</v>
@@ -565,13 +866,13 @@
         <v>0.50749</v>
       </c>
       <c r="J10" s="5">
-        <v>0.937422743231871</v>
+        <v>0.93742274323187103</v>
       </c>
       <c r="K10" s="5">
-        <v>0.567401908801696</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.56740190880169605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -579,7 +880,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
@@ -588,25 +889,25 @@
         <v>15</v>
       </c>
       <c r="F11" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3">
         <v>0.92</v>
       </c>
       <c r="I11" s="3">
-        <v>0.50653</v>
+        <v>0.50653000000000004</v>
       </c>
       <c r="J11" s="5">
-        <v>0.937197864376287</v>
+        <v>0.93719786437628705</v>
       </c>
       <c r="K11" s="5">
-        <v>0.555015906680805</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.55501590668080503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -614,7 +915,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
@@ -623,25 +924,25 @@
         <v>15</v>
       </c>
       <c r="F12" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G12" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3">
         <v>0.92</v>
       </c>
       <c r="I12" s="3">
-        <v>0.50687</v>
+        <v>0.50687000000000004</v>
       </c>
       <c r="J12" s="5">
-        <v>0.936959928038766</v>
+        <v>0.93695992803876604</v>
       </c>
       <c r="K12" s="5">
-        <v>0.556330858960763</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.55633085896076295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -649,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -658,25 +959,25 @@
         <v>15</v>
       </c>
       <c r="F13" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G13" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H13" s="3">
         <v>0.93</v>
       </c>
       <c r="I13" s="3">
-        <v>0.55381</v>
+        <v>0.55381000000000002</v>
       </c>
       <c r="J13" s="5">
-        <v>0.936912050604996</v>
+        <v>0.93691205060499605</v>
       </c>
       <c r="K13" s="5">
-        <v>0.564156945917285</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.56415694591728505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -684,7 +985,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
@@ -693,25 +994,25 @@
         <v>15</v>
       </c>
       <c r="F14" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>0.92</v>
       </c>
       <c r="I14" s="3">
-        <v>0.50891</v>
+        <v>0.50890999999999997</v>
       </c>
       <c r="J14" s="5">
-        <v>0.936893189797754</v>
+        <v>0.93689318979775404</v>
       </c>
       <c r="K14" s="5">
-        <v>0.567995758218451</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.56799575821845105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -719,7 +1020,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
@@ -728,25 +1029,25 @@
         <v>15</v>
       </c>
       <c r="F15" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G15" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H15" s="3">
         <v>0.94</v>
       </c>
       <c r="I15" s="3">
-        <v>0.5671</v>
+        <v>0.56710000000000005</v>
       </c>
       <c r="J15" s="5">
-        <v>0.936893189797754</v>
+        <v>0.93689318979775404</v>
       </c>
       <c r="K15" s="5">
-        <v>0.560402969247083</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0.56040296924708299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -754,7 +1055,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>16</v>
@@ -763,25 +1064,25 @@
         <v>15</v>
       </c>
       <c r="F16" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H16" s="3">
         <v>0.92</v>
       </c>
       <c r="I16" s="3">
-        <v>0.50753</v>
+        <v>0.50753000000000004</v>
       </c>
       <c r="J16" s="5">
-        <v>0.936849664857963</v>
+        <v>0.93684966485796295</v>
       </c>
       <c r="K16" s="5">
-        <v>0.56814422057264</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.56814422057264002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -789,7 +1090,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>16</v>
@@ -798,25 +1099,25 @@
         <v>15</v>
       </c>
       <c r="F17" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H17" s="3">
         <v>0.92</v>
       </c>
       <c r="I17" s="3">
-        <v>0.50914</v>
+        <v>0.50914000000000004</v>
       </c>
       <c r="J17" s="5">
-        <v>0.936768418303688</v>
+        <v>0.93676841830368796</v>
       </c>
       <c r="K17" s="5">
-        <v>0.567083775185577</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.56708377518557695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -824,7 +1125,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>16</v>
@@ -833,25 +1134,25 @@
         <v>15</v>
       </c>
       <c r="F18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3">
         <v>0.92</v>
       </c>
       <c r="I18" s="3">
-        <v>0.50893</v>
+        <v>0.50892999999999999</v>
       </c>
       <c r="J18" s="5">
-        <v>0.936584162725241</v>
+        <v>0.93658416272524103</v>
       </c>
       <c r="K18" s="5">
-        <v>0.568398727465535</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.56839872746553499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -859,7 +1160,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
@@ -868,25 +1169,25 @@
         <v>15</v>
       </c>
       <c r="F19" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G19" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
         <v>0.93</v>
       </c>
       <c r="I19" s="3">
-        <v>0.5597</v>
+        <v>0.55969999999999998</v>
       </c>
       <c r="J19" s="5">
         <v>0.936518875315555</v>
       </c>
       <c r="K19" s="5">
-        <v>0.554273594909862</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.55427359490986206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -894,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
@@ -903,25 +1204,25 @@
         <v>15</v>
       </c>
       <c r="F20" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H20" s="3">
         <v>0.93</v>
       </c>
       <c r="I20" s="3">
-        <v>0.55054</v>
+        <v>0.55054000000000003</v>
       </c>
       <c r="J20" s="5">
-        <v>0.93646954705046</v>
+        <v>0.93646954705046004</v>
       </c>
       <c r="K20" s="5">
-        <v>0.566002120890774</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0.56600212089077395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -929,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>16</v>
@@ -938,25 +1239,25 @@
         <v>15</v>
       </c>
       <c r="F21" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H21" s="3">
         <v>0.93</v>
       </c>
       <c r="I21" s="3">
-        <v>0.55126</v>
+        <v>0.55125999999999997</v>
       </c>
       <c r="J21" s="5">
-        <v>0.936341873893741</v>
+        <v>0.93634187389374102</v>
       </c>
       <c r="K21" s="5">
-        <v>0.563032873806998</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.56303287380699796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -964,7 +1265,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>16</v>
@@ -973,25 +1274,25 @@
         <v>15</v>
       </c>
       <c r="F22" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G22" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H22" s="3">
         <v>0.92</v>
       </c>
       <c r="I22" s="3">
-        <v>0.50672</v>
+        <v>0.50671999999999995</v>
       </c>
       <c r="J22" s="5">
-        <v>0.936272233990076</v>
+        <v>0.93627223399007597</v>
       </c>
       <c r="K22" s="5">
-        <v>0.555737009544008</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.55573700954400795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -999,7 +1300,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>16</v>
@@ -1008,10 +1309,10 @@
         <v>15</v>
       </c>
       <c r="F23" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H23" s="3">
         <v>0.92</v>
@@ -1023,10 +1324,10 @@
         <v>0.936251922351507</v>
       </c>
       <c r="K23" s="5">
-        <v>0.556373276776246</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0.55637327677624604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1335,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>16</v>
@@ -1043,10 +1344,10 @@
         <v>15</v>
       </c>
       <c r="F24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H24" s="3">
         <v>0.92</v>
@@ -1058,10 +1359,10 @@
         <v>0.936199692423758</v>
       </c>
       <c r="K24" s="5">
-        <v>0.557264050901378</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0.55726405090137798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -1069,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>16</v>
@@ -1078,25 +1379,25 @@
         <v>15</v>
       </c>
       <c r="F25" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G25" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
         <v>0.93</v>
       </c>
       <c r="I25" s="3">
-        <v>0.55126</v>
+        <v>0.55125999999999997</v>
       </c>
       <c r="J25" s="5">
-        <v>0.936098134230914</v>
+        <v>0.93609813423091404</v>
       </c>
       <c r="K25" s="5">
-        <v>0.558218451749734</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0.55821845174973395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1104,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>16</v>
@@ -1113,25 +1414,25 @@
         <v>15</v>
       </c>
       <c r="F26" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3">
         <v>0.93</v>
       </c>
       <c r="I26" s="3">
-        <v>0.56629</v>
+        <v>0.56628999999999996</v>
       </c>
       <c r="J26" s="5">
-        <v>0.935896468676551</v>
+        <v>0.93589646867655096</v>
       </c>
       <c r="K26" s="5">
         <v>0.556352067868504</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1139,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>16</v>
@@ -1148,25 +1449,25 @@
         <v>15</v>
       </c>
       <c r="F27" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H27" s="3">
         <v>0.93</v>
       </c>
       <c r="I27" s="3">
-        <v>0.5662</v>
+        <v>0.56620000000000004</v>
       </c>
       <c r="J27" s="5">
-        <v>0.935871804544003</v>
+        <v>0.93587180454400298</v>
       </c>
       <c r="K27" s="5">
-        <v>0.554952279957582</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0.55495227995758201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1174,7 +1475,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>16</v>
@@ -1183,25 +1484,25 @@
         <v>15</v>
       </c>
       <c r="F28" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G28" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H28" s="3">
         <v>0.92</v>
       </c>
       <c r="I28" s="3">
-        <v>0.50761</v>
+        <v>0.50761000000000001</v>
       </c>
       <c r="J28" s="5">
-        <v>0.935774598845138</v>
+        <v>0.93577459884513803</v>
       </c>
       <c r="K28" s="5">
         <v>0.568674443266171</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1209,7 +1510,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>16</v>
@@ -1218,25 +1519,25 @@
         <v>15</v>
       </c>
       <c r="F29" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G29" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3">
         <v>0.93</v>
       </c>
       <c r="I29" s="3">
-        <v>0.57048</v>
+        <v>0.57047999999999999</v>
       </c>
       <c r="J29" s="5">
-        <v>0.935744131387284</v>
+        <v>0.93574413138728396</v>
       </c>
       <c r="K29" s="5">
-        <v>0.557815482502651</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0.55781548250265101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A30" s="15" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1545,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>16</v>
@@ -1253,25 +1554,25 @@
         <v>15</v>
       </c>
       <c r="F30" s="16">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G30" s="16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="16">
         <v>0.93</v>
       </c>
       <c r="I30" s="16">
-        <v>0.57052</v>
+        <v>0.57052000000000003</v>
       </c>
       <c r="J30" s="13">
-        <v>0.935693352290862</v>
+        <v>0.93569335229086203</v>
       </c>
       <c r="K30" s="13">
-        <v>0.55966065747614</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0.55966065747614002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1580,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>16</v>
@@ -1288,25 +1589,25 @@
         <v>15</v>
       </c>
       <c r="F31" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G31" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H31" s="3">
         <v>0.93</v>
       </c>
       <c r="I31" s="3">
-        <v>0.57018</v>
+        <v>0.57018000000000002</v>
       </c>
       <c r="J31" s="5">
         <v>0.935408989350898</v>
       </c>
       <c r="K31" s="5">
-        <v>0.567253446447507</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0.56725344644750697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -1314,7 +1615,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>16</v>
@@ -1323,25 +1624,25 @@
         <v>15</v>
       </c>
       <c r="F32" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G32" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H32" s="3">
         <v>0.93</v>
       </c>
       <c r="I32" s="3">
-        <v>0.54337</v>
+        <v>0.54337000000000002</v>
       </c>
       <c r="J32" s="5">
-        <v>0.935334996953254</v>
+        <v>0.93533499695325395</v>
       </c>
       <c r="K32" s="5">
-        <v>0.554103923647932</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0.55410392364793204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -1349,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>16</v>
@@ -1358,25 +1659,25 @@
         <v>15</v>
       </c>
       <c r="F33" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G33" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H33" s="3">
         <v>0.93</v>
       </c>
       <c r="I33" s="3">
-        <v>0.54312</v>
+        <v>0.54312000000000005</v>
       </c>
       <c r="J33" s="5">
-        <v>0.934799640193831</v>
+        <v>0.93479964019383099</v>
       </c>
       <c r="K33" s="5">
-        <v>0.553510074231177</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0.55351007423117704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
@@ -1384,7 +1685,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>16</v>
@@ -1393,25 +1694,25 @@
         <v>15</v>
       </c>
       <c r="F34" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G34" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H34" s="3">
         <v>0.93</v>
       </c>
       <c r="I34" s="3">
-        <v>0.55042</v>
+        <v>0.55042000000000002</v>
       </c>
       <c r="J34" s="5">
-        <v>0.934294750892261</v>
+        <v>0.93429475089226099</v>
       </c>
       <c r="K34" s="5">
-        <v>0.553213149522799</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0.55321314952279899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -1419,7 +1720,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>16</v>
@@ -1428,10 +1729,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H35" s="3">
         <v>0.93</v>
@@ -1440,13 +1741,13 @@
         <v>0.5504</v>
       </c>
       <c r="J35" s="5">
-        <v>0.93410033949453</v>
+        <v>0.93410033949452997</v>
       </c>
       <c r="K35" s="5">
-        <v>0.554019088016967</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0.55401908801696698</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -1454,7 +1755,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>16</v>
@@ -1463,25 +1764,25 @@
         <v>15</v>
       </c>
       <c r="F36" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G36" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H36" s="3">
         <v>0.93</v>
       </c>
       <c r="I36" s="3">
-        <v>0.5459</v>
+        <v>0.54590000000000005</v>
       </c>
       <c r="J36" s="5">
-        <v>0.934029248759539</v>
+        <v>0.93402924875953897</v>
       </c>
       <c r="K36" s="5">
-        <v>0.55221633085896</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0.55221633085896005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
@@ -1489,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>16</v>
@@ -1498,25 +1799,25 @@
         <v>15</v>
       </c>
       <c r="F37" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G37" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H37" s="3">
         <v>0.93</v>
       </c>
       <c r="I37" s="3">
-        <v>0.5541</v>
+        <v>0.55410000000000004</v>
       </c>
       <c r="J37" s="5">
         <v>0.93379421408467</v>
       </c>
       <c r="K37" s="5">
-        <v>0.56084835630965</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0.56084835630965002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -1524,7 +1825,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>16</v>
@@ -1533,25 +1834,25 @@
         <v>15</v>
       </c>
       <c r="F38" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H38" s="3">
         <v>0.92</v>
       </c>
       <c r="I38" s="3">
-        <v>0.56661</v>
+        <v>0.56660999999999995</v>
       </c>
       <c r="J38" s="5">
-        <v>0.933773902446101</v>
+        <v>0.93377390244610103</v>
       </c>
       <c r="K38" s="5">
-        <v>0.557560975609756</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0.55756097560975604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -1559,7 +1860,7 @@
         <v>27</v>
       </c>
       <c r="C39" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>16</v>
@@ -1568,10 +1869,10 @@
         <v>15</v>
       </c>
       <c r="F39" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H39" s="3">
         <v>0.92</v>
@@ -1580,13 +1881,13 @@
         <v>0.51771</v>
       </c>
       <c r="J39" s="5">
-        <v>0.933633171807445</v>
+        <v>0.93363317180744498</v>
       </c>
       <c r="K39" s="5">
-        <v>0.56763520678685</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0.56763520678684998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -1594,7 +1895,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>16</v>
@@ -1603,25 +1904,25 @@
         <v>15</v>
       </c>
       <c r="F40" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G40" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H40" s="3">
         <v>0.93</v>
       </c>
       <c r="I40" s="3">
-        <v>0.55011</v>
+        <v>0.55010999999999999</v>
       </c>
       <c r="J40" s="5">
-        <v>0.933461973710936</v>
+        <v>0.93346197371093598</v>
       </c>
       <c r="K40" s="5">
-        <v>0.553700954400848</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0.55370095440084799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -1629,7 +1930,7 @@
         <v>24</v>
       </c>
       <c r="C41" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>16</v>
@@ -1638,10 +1939,10 @@
         <v>15</v>
       </c>
       <c r="F41" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H41" s="3">
         <v>0.92</v>
@@ -1650,13 +1951,13 @@
         <v>0.51771</v>
       </c>
       <c r="J41" s="5">
-        <v>0.933374923831355</v>
+        <v>0.93337492383135501</v>
       </c>
       <c r="K41" s="5">
         <v>0.568292682926829</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>12</v>
       </c>
@@ -1664,7 +1965,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>16</v>
@@ -1673,25 +1974,25 @@
         <v>15</v>
       </c>
       <c r="F42" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G42" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H42" s="3">
         <v>0.93</v>
       </c>
       <c r="I42" s="3">
-        <v>0.54585</v>
+        <v>0.54584999999999995</v>
       </c>
       <c r="J42" s="5">
         <v>0.9332893247831</v>
       </c>
       <c r="K42" s="5">
-        <v>0.550604453870625</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0.55060445387062495</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>21</v>
       </c>
@@ -1699,7 +2000,7 @@
         <v>27</v>
       </c>
       <c r="C43" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>16</v>
@@ -1708,25 +2009,25 @@
         <v>15</v>
       </c>
       <c r="F43" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H43" s="3">
         <v>0.92</v>
       </c>
       <c r="I43" s="3">
-        <v>0.53345</v>
+        <v>0.53344999999999998</v>
       </c>
       <c r="J43" s="5">
-        <v>0.933216783216783</v>
+        <v>0.93321678321678303</v>
       </c>
       <c r="K43" s="5">
-        <v>0.556882290562036</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0.55688229056203598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>12</v>
       </c>
@@ -1734,7 +2035,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>16</v>
@@ -1743,25 +2044,25 @@
         <v>15</v>
       </c>
       <c r="F44" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H44" s="3">
         <v>0.92</v>
       </c>
       <c r="I44" s="3">
-        <v>0.5662</v>
+        <v>0.56620000000000004</v>
       </c>
       <c r="J44" s="5">
-        <v>0.933058642602211</v>
+        <v>0.93305864260221105</v>
       </c>
       <c r="K44" s="5">
-        <v>0.556033934252385</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0.55603393425238501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -1769,7 +2070,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>16</v>
@@ -1778,25 +2079,25 @@
         <v>15</v>
       </c>
       <c r="F45" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H45" s="3">
         <v>0.92</v>
       </c>
       <c r="I45" s="3">
-        <v>0.56627</v>
+        <v>0.56627000000000005</v>
       </c>
       <c r="J45" s="5">
-        <v>0.932774279662246</v>
+        <v>0.93277427966224602</v>
       </c>
       <c r="K45" s="5">
-        <v>0.559915164369035</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>0.55991516436903499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>21</v>
       </c>
@@ -1804,7 +2105,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>16</v>
@@ -1813,25 +2114,25 @@
         <v>15</v>
       </c>
       <c r="F46" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H46" s="3">
         <v>0.93</v>
       </c>
       <c r="I46" s="3">
-        <v>0.54006</v>
+        <v>0.54005999999999998</v>
       </c>
       <c r="J46" s="5">
-        <v>0.932417375155964</v>
+        <v>0.93241737515596401</v>
       </c>
       <c r="K46" s="5">
-        <v>0.548907741251325</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>0.54890774125132502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>12</v>
       </c>
@@ -1839,7 +2140,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>16</v>
@@ -1848,25 +2149,25 @@
         <v>15</v>
       </c>
       <c r="F47" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H47" s="3">
         <v>0.92</v>
       </c>
       <c r="I47" s="3">
-        <v>0.51731</v>
+        <v>0.51731000000000005</v>
       </c>
       <c r="J47" s="5">
-        <v>0.932414473493311</v>
+        <v>0.93241447349331097</v>
       </c>
       <c r="K47" s="5">
-        <v>0.566362672322375</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0.56636267232237503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -1874,7 +2175,7 @@
         <v>13</v>
       </c>
       <c r="C48" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>16</v>
@@ -1883,10 +2184,10 @@
         <v>15</v>
       </c>
       <c r="F48" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H48" s="3">
         <v>0.92</v>
@@ -1895,13 +2196,13 @@
         <v>0.56755</v>
       </c>
       <c r="J48" s="5">
-        <v>0.931948756637553</v>
+        <v>0.93194875663755306</v>
       </c>
       <c r="K48" s="5">
-        <v>0.547953340402969</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>0.54795334040296895</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -1909,7 +2210,7 @@
         <v>13</v>
       </c>
       <c r="C49" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>16</v>
@@ -1918,25 +2219,25 @@
         <v>15</v>
       </c>
       <c r="F49" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H49" s="3">
         <v>0.92</v>
       </c>
       <c r="I49" s="3">
-        <v>0.56751</v>
+        <v>0.56750999999999996</v>
       </c>
       <c r="J49" s="5">
-        <v>0.931905231697762</v>
+        <v>0.93190523169776196</v>
       </c>
       <c r="K49" s="5">
         <v>0.550031813361611</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
@@ -1944,7 +2245,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>16</v>
@@ -1953,25 +2254,25 @@
         <v>15</v>
       </c>
       <c r="F50" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H50" s="3">
         <v>0.92</v>
       </c>
       <c r="I50" s="3">
-        <v>0.51775</v>
+        <v>0.51775000000000004</v>
       </c>
       <c r="J50" s="5">
-        <v>0.931684705336157</v>
+        <v>0.93168470533615699</v>
       </c>
       <c r="K50" s="5">
-        <v>0.566850477200424</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>0.56685047720042403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>12</v>
       </c>
@@ -1979,7 +2280,7 @@
         <v>26</v>
       </c>
       <c r="C51" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>16</v>
@@ -1988,25 +2289,25 @@
         <v>15</v>
       </c>
       <c r="F51" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G51" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H51" s="3">
         <v>0.94</v>
       </c>
       <c r="I51" s="3">
-        <v>0.54677</v>
+        <v>0.54676999999999998</v>
       </c>
       <c r="J51" s="5">
         <v>0.931469982299857</v>
       </c>
       <c r="K51" s="5">
-        <v>0.55645811240721</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0.55645811240720999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>12</v>
       </c>
@@ -2014,7 +2315,7 @@
         <v>26</v>
       </c>
       <c r="C52" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>16</v>
@@ -2023,25 +2324,25 @@
         <v>15</v>
       </c>
       <c r="F52" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G52" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H52" s="3">
         <v>0.93</v>
       </c>
       <c r="I52" s="3">
-        <v>0.5381</v>
+        <v>0.53810000000000002</v>
       </c>
       <c r="J52" s="5">
-        <v>0.931387284914255</v>
+        <v>0.93138728491425504</v>
       </c>
       <c r="K52" s="5">
-        <v>0.55459172852598</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>0.55459172852598004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -2049,7 +2350,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>16</v>
@@ -2058,10 +2359,10 @@
         <v>15</v>
       </c>
       <c r="F53" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H53" s="3">
         <v>0.93</v>
@@ -2073,10 +2374,10 @@
         <v>0.931065200359806</v>
       </c>
       <c r="K53" s="5">
-        <v>0.561081654294803</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>0.56108165429480295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
@@ -2084,7 +2385,7 @@
         <v>29</v>
       </c>
       <c r="C54" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>16</v>
@@ -2093,25 +2394,25 @@
         <v>15</v>
       </c>
       <c r="F54" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H54" s="3">
         <v>0.92</v>
       </c>
       <c r="I54" s="3">
-        <v>0.56763</v>
+        <v>0.56762999999999997</v>
       </c>
       <c r="J54" s="5">
         <v>0.930441342889475</v>
       </c>
       <c r="K54" s="5">
-        <v>0.548504772004241</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>0.54850477200424097</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>17</v>
       </c>
@@ -2140,13 +2441,13 @@
         <v>0.48657</v>
       </c>
       <c r="J55" s="5">
-        <v>0.930384760467748</v>
+        <v>0.93038476046774798</v>
       </c>
       <c r="K55" s="5">
-        <v>0.559936373276776</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>0.55993637327677603</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
@@ -2154,7 +2455,7 @@
         <v>26</v>
       </c>
       <c r="C56" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>16</v>
@@ -2163,25 +2464,25 @@
         <v>15</v>
       </c>
       <c r="F56" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H56" s="3">
         <v>0.91</v>
       </c>
       <c r="I56" s="3">
-        <v>0.53872</v>
+        <v>0.53871999999999998</v>
       </c>
       <c r="J56" s="5">
         <v>0.929617270696108</v>
       </c>
       <c r="K56" s="5">
-        <v>0.556203605514316</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>0.55620360551431602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>17</v>
       </c>
@@ -2189,7 +2490,7 @@
         <v>15</v>
       </c>
       <c r="C57" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>22</v>
@@ -2207,16 +2508,16 @@
         <v>0.91</v>
       </c>
       <c r="I57" s="3">
-        <v>0.48515</v>
+        <v>0.48515000000000003</v>
       </c>
       <c r="J57" s="5">
         <v>0.929231349563299</v>
       </c>
       <c r="K57" s="5">
-        <v>0.562778366914103</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>0.56277836691410299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -2224,7 +2525,7 @@
         <v>26</v>
       </c>
       <c r="C58" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>16</v>
@@ -2233,25 +2534,25 @@
         <v>15</v>
       </c>
       <c r="F58" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H58" s="3">
         <v>0.93</v>
       </c>
       <c r="I58" s="3">
-        <v>0.53734</v>
+        <v>0.53734000000000004</v>
       </c>
       <c r="J58" s="5">
-        <v>0.929186373792182</v>
+        <v>0.92918637379218205</v>
       </c>
       <c r="K58" s="5">
-        <v>0.557264050901378</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>0.55726405090137798</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>17</v>
       </c>
@@ -2259,7 +2560,7 @@
         <v>15</v>
       </c>
       <c r="C59" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>22</v>
@@ -2277,16 +2578,16 @@
         <v>0.91</v>
       </c>
       <c r="I59" s="3">
-        <v>0.48537</v>
+        <v>0.48537000000000002</v>
       </c>
       <c r="J59" s="5">
-        <v>0.928636508719496</v>
+        <v>0.92863650871949599</v>
       </c>
       <c r="K59" s="5">
-        <v>0.558960763520678</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>0.55896076352067803</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>17</v>
       </c>
@@ -2294,7 +2595,7 @@
         <v>15</v>
       </c>
       <c r="C60" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>16</v>
@@ -2312,16 +2613,16 @@
         <v>0.91</v>
       </c>
       <c r="I60" s="3">
-        <v>0.48513</v>
+        <v>0.48513000000000001</v>
       </c>
       <c r="J60" s="5">
-        <v>0.928330383309636</v>
+        <v>0.92833038330963602</v>
       </c>
       <c r="K60" s="5">
-        <v>0.563499469777306</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>0.56349946977730603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>12</v>
       </c>
@@ -2329,7 +2630,7 @@
         <v>26</v>
       </c>
       <c r="C61" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>16</v>
@@ -2338,25 +2639,25 @@
         <v>15</v>
       </c>
       <c r="F61" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H61" s="3">
         <v>0.91</v>
       </c>
       <c r="I61" s="3">
-        <v>0.53838</v>
+        <v>0.53837999999999997</v>
       </c>
       <c r="J61" s="5">
-        <v>0.928247685924034</v>
+        <v>0.92824768592403395</v>
       </c>
       <c r="K61" s="5">
-        <v>0.557158006362672</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>0.55715800636267199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
@@ -2364,7 +2665,7 @@
         <v>15</v>
       </c>
       <c r="C62" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>16</v>
@@ -2382,16 +2683,16 @@
         <v>0.91</v>
       </c>
       <c r="I62" s="3">
-        <v>0.48526</v>
+        <v>0.48526000000000002</v>
       </c>
       <c r="J62" s="5">
-        <v>0.927979282128659</v>
+        <v>0.92797928212865899</v>
       </c>
       <c r="K62" s="5">
-        <v>0.562969247083775</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>0.56296924708377505</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
@@ -2399,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="C63" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>16</v>
@@ -2408,25 +2709,25 @@
         <v>15</v>
       </c>
       <c r="F63" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H63" s="3">
         <v>0.91</v>
       </c>
       <c r="I63" s="3">
-        <v>0.56131</v>
+        <v>0.56130999999999998</v>
       </c>
       <c r="J63" s="5">
         <v>0.924954298813219</v>
       </c>
       <c r="K63" s="5">
-        <v>0.545047720042417</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>0.54504772004241697</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>12</v>
       </c>
@@ -2434,7 +2735,7 @@
         <v>26</v>
       </c>
       <c r="C64" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>16</v>
@@ -2443,25 +2744,25 @@
         <v>15</v>
       </c>
       <c r="F64" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H64" s="3">
         <v>0.9</v>
       </c>
       <c r="I64" s="3">
-        <v>0.51875</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="J64" s="5">
-        <v>0.917253286132954</v>
+        <v>0.91725328613295398</v>
       </c>
       <c r="K64" s="5">
         <v>0.56424178154825</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -2475,7 +2776,7 @@
         <v>16</v>
       </c>
       <c r="E65" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
@@ -2483,16 +2784,16 @@
         <v>0.91</v>
       </c>
       <c r="I65" s="3">
-        <v>0.48717</v>
+        <v>0.48716999999999999</v>
       </c>
       <c r="J65" s="5">
-        <v>0.885855845399413</v>
+        <v>0.88585584539941298</v>
       </c>
       <c r="K65" s="5">
-        <v>0.473319194061505</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>0.47331919406150502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>23</v>
       </c>
@@ -2506,7 +2807,7 @@
         <v>16</v>
       </c>
       <c r="E66" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
@@ -2514,16 +2815,16 @@
         <v>0.91</v>
       </c>
       <c r="I66" s="3">
-        <v>0.50358</v>
+        <v>0.50358000000000003</v>
       </c>
       <c r="J66" s="5">
-        <v>0.878594434611032</v>
+        <v>0.87859443461103204</v>
       </c>
       <c r="K66" s="5">
-        <v>0.483881230116648</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0.48388123011664802</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>23</v>
       </c>
@@ -2537,7 +2838,7 @@
         <v>16</v>
       </c>
       <c r="E67" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
@@ -2545,16 +2846,16 @@
         <v>0.92</v>
       </c>
       <c r="I67" s="3">
-        <v>0.5074</v>
+        <v>0.50739999999999996</v>
       </c>
       <c r="J67" s="5">
-        <v>0.869848823375794</v>
+        <v>0.86984882337579394</v>
       </c>
       <c r="K67" s="5">
-        <v>0.425726405090137</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>0.42572640509013698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -2568,7 +2869,7 @@
         <v>25</v>
       </c>
       <c r="E68" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
@@ -2576,16 +2877,16 @@
         <v>0.91</v>
       </c>
       <c r="I68" s="3">
-        <v>0.50068</v>
+        <v>0.50068000000000001</v>
       </c>
       <c r="J68" s="5">
-        <v>0.863177900937237</v>
+        <v>0.86317790093723701</v>
       </c>
       <c r="K68" s="5">
         <v>0.461124072110286</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>1</v>
       </c>
@@ -2603,32 +2904,37 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2663,7 +2969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2689,16 +2995,16 @@
         <v>0.9</v>
       </c>
       <c r="I3" s="2">
-        <v>0.43701</v>
+        <v>0.43701000000000001</v>
       </c>
       <c r="J3" s="5">
-        <v>0.926483475031192</v>
+        <v>0.92648347503119199</v>
       </c>
       <c r="K3" s="5">
-        <v>0.525238600212089</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.52523860021208901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2706,7 +3012,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -2724,16 +3030,16 @@
         <v>0.77</v>
       </c>
       <c r="I4" s="2">
-        <v>0.25035</v>
+        <v>0.25035000000000002</v>
       </c>
       <c r="J4" s="5">
-        <v>0.927554188550039</v>
+        <v>0.92755418855003902</v>
       </c>
       <c r="K4" s="5">
-        <v>0.5450901378579</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.54509013785789995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2768,7 +3074,7 @@
         <v>0.534740190880169</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -2776,7 +3082,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="9">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>16</v>
@@ -2794,16 +3100,16 @@
         <v>0.77</v>
       </c>
       <c r="I6" s="7">
-        <v>0.25003</v>
+        <v>0.25002999999999997</v>
       </c>
       <c r="J6" s="13">
-        <v>0.929810231262513</v>
+        <v>0.92981023126251305</v>
       </c>
       <c r="K6" s="13">
-        <v>0.542014846235418</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.54201484623541796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -2811,7 +3117,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>22</v>
@@ -2829,16 +3135,16 @@
         <v>0.77</v>
       </c>
       <c r="I7" s="7">
-        <v>0.2499</v>
+        <v>0.24990000000000001</v>
       </c>
       <c r="J7" s="12">
-        <v>0.928941183298029</v>
+        <v>0.92894118329802899</v>
       </c>
       <c r="K7" s="12">
-        <v>0.552258748674443</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.55225874867444302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2846,7 +3152,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>22</v>
@@ -2864,16 +3170,16 @@
         <v>0.77</v>
       </c>
       <c r="I8" s="2">
-        <v>0.25016</v>
+        <v>0.25015999999999999</v>
       </c>
       <c r="J8" s="5">
-        <v>0.925961175753706</v>
+        <v>0.92596117575370596</v>
       </c>
       <c r="K8" s="5">
         <v>0.538685047720042</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2887,7 +3193,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -2895,16 +3201,16 @@
         <v>0.8</v>
       </c>
       <c r="I9" s="2">
-        <v>0.28218</v>
+        <v>0.28217999999999999</v>
       </c>
       <c r="J9" s="5">
-        <v>0.82169863331689</v>
+        <v>0.82169863331688997</v>
       </c>
       <c r="K9" s="5">
-        <v>0.139024390243902</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.13902439024390201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2918,7 +3224,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -2926,16 +3232,16 @@
         <v>0.8</v>
       </c>
       <c r="I10" s="2">
-        <v>0.28127</v>
+        <v>0.28127000000000002</v>
       </c>
       <c r="J10" s="5">
-        <v>0.873690624727969</v>
+        <v>0.87369062472796899</v>
       </c>
       <c r="K10" s="5">
-        <v>0.24593849416755</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.24593849416755001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -2949,7 +3255,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -2957,16 +3263,16 @@
         <v>0.8</v>
       </c>
       <c r="I11" s="2">
-        <v>0.27996</v>
+        <v>0.27995999999999999</v>
       </c>
       <c r="J11" s="5">
-        <v>0.885462670109973</v>
+        <v>0.88546267010997304</v>
       </c>
       <c r="K11" s="5">
-        <v>0.258027571580063</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.25802757158006301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2980,7 +3286,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -2988,16 +3294,16 @@
         <v>0.8</v>
       </c>
       <c r="I12" s="2">
-        <v>0.28411</v>
+        <v>0.28410999999999997</v>
       </c>
       <c r="J12" s="5">
         <v>0.867483968313843</v>
       </c>
       <c r="K12" s="5">
-        <v>0.215546129374337</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.21554612937433701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3005,7 +3311,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -3014,25 +3320,25 @@
         <v>15</v>
       </c>
       <c r="F13" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2">
         <v>0.8</v>
       </c>
       <c r="I13" s="2">
-        <v>0.27915</v>
+        <v>0.27915000000000001</v>
       </c>
       <c r="J13" s="5">
-        <v>0.910868177465687</v>
+        <v>0.91086817746568705</v>
       </c>
       <c r="K13" s="5">
-        <v>0.407762460233297</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.40776246023329699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -3040,7 +3346,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
@@ -3049,25 +3355,25 @@
         <v>15</v>
       </c>
       <c r="F14" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2">
         <v>0.8</v>
       </c>
       <c r="I14" s="2">
-        <v>0.28106</v>
+        <v>0.28105999999999998</v>
       </c>
       <c r="J14" s="5">
-        <v>0.914440124191161</v>
+        <v>0.91444012419116105</v>
       </c>
       <c r="K14" s="5">
-        <v>0.437285259809119</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.43728525980911898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3075,7 +3381,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
@@ -3084,10 +3390,10 @@
         <v>15</v>
       </c>
       <c r="F15" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G15" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H15" s="2">
         <v>0.8</v>
@@ -3096,13 +3402,13 @@
         <v>0.28142</v>
       </c>
       <c r="J15" s="5">
-        <v>0.916926849084525</v>
+        <v>0.91692684908452504</v>
       </c>
       <c r="K15" s="5">
-        <v>0.44950159066808</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0.44950159066807999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -3110,7 +3416,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>16</v>
@@ -3119,25 +3425,25 @@
         <v>15</v>
       </c>
       <c r="F16" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G16" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H16" s="2">
         <v>0.81</v>
       </c>
       <c r="I16" s="2">
-        <v>0.28261</v>
+        <v>0.28260999999999997</v>
       </c>
       <c r="J16" s="5">
-        <v>0.915618199228157</v>
+        <v>0.91561819922815701</v>
       </c>
       <c r="K16" s="5">
-        <v>0.47459172852598</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.47459172852597997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -3145,7 +3451,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>16</v>
@@ -3154,25 +3460,25 @@
         <v>15</v>
       </c>
       <c r="F17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H17" s="2">
         <v>0.8</v>
       </c>
       <c r="I17" s="2">
-        <v>0.27917</v>
+        <v>0.27916999999999997</v>
       </c>
       <c r="J17" s="5">
-        <v>0.911486231610712</v>
+        <v>0.91148623161071196</v>
       </c>
       <c r="K17" s="5">
-        <v>0.399597030752916</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.39959703075291603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -3180,7 +3486,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>16</v>
@@ -3189,25 +3495,25 @@
         <v>15</v>
       </c>
       <c r="F18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2">
         <v>0.8</v>
       </c>
       <c r="I18" s="2">
-        <v>0.28106</v>
+        <v>0.28105999999999998</v>
       </c>
       <c r="J18" s="5">
-        <v>0.918885471375097</v>
+        <v>0.91888547137509702</v>
       </c>
       <c r="K18" s="5">
-        <v>0.448674443266171</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.44867444326617101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -3215,7 +3521,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
@@ -3224,25 +3530,25 @@
         <v>15</v>
       </c>
       <c r="F19" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G19" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2">
         <v>0.8</v>
       </c>
       <c r="I19" s="2">
-        <v>0.2811</v>
+        <v>0.28110000000000002</v>
       </c>
       <c r="J19" s="5">
-        <v>0.91626091750573</v>
+        <v>0.91626091750573002</v>
       </c>
       <c r="K19" s="5">
-        <v>0.470074231177094</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.47007423117709402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -3250,7 +3556,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
@@ -3259,10 +3565,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G20" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2">
         <v>0.81</v>
@@ -3271,13 +3577,13 @@
         <v>0.28242</v>
       </c>
       <c r="J20" s="5">
-        <v>0.917199605373879</v>
+        <v>0.91719960537387901</v>
       </c>
       <c r="K20" s="5">
-        <v>0.485026511134676</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0.48502651113467599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -3285,7 +3591,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>16</v>
@@ -3294,25 +3600,25 @@
         <v>15</v>
       </c>
       <c r="F21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2">
         <v>0.8</v>
       </c>
       <c r="I21" s="2">
-        <v>0.27905</v>
+        <v>0.27905000000000002</v>
       </c>
       <c r="J21" s="5">
-        <v>0.911079998839334</v>
+        <v>0.91107999883933399</v>
       </c>
       <c r="K21" s="5">
-        <v>0.398176033934252</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.39817603393425199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -3320,7 +3626,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>16</v>
@@ -3329,25 +3635,25 @@
         <v>15</v>
       </c>
       <c r="F22" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2">
         <v>0.8</v>
       </c>
       <c r="I22" s="2">
-        <v>0.28112</v>
+        <v>0.28111999999999998</v>
       </c>
       <c r="J22" s="5">
-        <v>0.916231900879203</v>
+        <v>0.91623190087920303</v>
       </c>
       <c r="K22" s="5">
-        <v>0.438345705196182</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.43834570519618199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -3355,7 +3661,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>16</v>
@@ -3364,25 +3670,25 @@
         <v>15</v>
       </c>
       <c r="F23" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G23" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H23" s="2">
         <v>0.8</v>
       </c>
       <c r="I23" s="2">
-        <v>0.28134</v>
+        <v>0.28133999999999998</v>
       </c>
       <c r="J23" s="5">
-        <v>0.916063604445347</v>
+        <v>0.91606360444534696</v>
       </c>
       <c r="K23" s="5">
-        <v>0.45374337221633</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0.45374337221632999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -3390,7 +3696,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>16</v>
@@ -3399,10 +3705,10 @@
         <v>15</v>
       </c>
       <c r="F24" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H24" s="2">
         <v>0.81</v>
@@ -3411,13 +3717,13 @@
         <v>0.28303</v>
       </c>
       <c r="J24" s="5">
-        <v>0.917096596349708</v>
+        <v>0.91709659634970797</v>
       </c>
       <c r="K24" s="5">
         <v>0.462396606574761</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -3425,7 +3731,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>16</v>
@@ -3434,25 +3740,25 @@
         <v>15</v>
       </c>
       <c r="F25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H25" s="2">
         <v>0.84</v>
       </c>
       <c r="I25" s="2">
-        <v>0.28278</v>
+        <v>0.28277999999999998</v>
       </c>
       <c r="J25" s="5">
-        <v>0.875707280271595</v>
+        <v>0.87570728027159495</v>
       </c>
       <c r="K25" s="5">
         <v>0.239490986214209</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -3460,7 +3766,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>16</v>
@@ -3469,25 +3775,25 @@
         <v>15</v>
       </c>
       <c r="F26" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H26" s="2">
         <v>0.85</v>
       </c>
       <c r="I26" s="2">
-        <v>0.28861</v>
+        <v>0.28860999999999998</v>
       </c>
       <c r="J26" s="5">
-        <v>0.899277485999477</v>
+        <v>0.89927748599947699</v>
       </c>
       <c r="K26" s="5">
-        <v>0.347232237539766</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0.34723223753976601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -3495,7 +3801,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>16</v>
@@ -3504,25 +3810,25 @@
         <v>15</v>
       </c>
       <c r="F27" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G27" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H27" s="2">
         <v>0.84</v>
       </c>
       <c r="I27" s="2">
-        <v>0.2849</v>
+        <v>0.28489999999999999</v>
       </c>
       <c r="J27" s="5">
-        <v>0.90350956097844</v>
+        <v>0.90350956097844004</v>
       </c>
       <c r="K27" s="5">
         <v>0.357709437963944</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -3530,7 +3836,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>16</v>
@@ -3539,10 +3845,10 @@
         <v>15</v>
       </c>
       <c r="F28" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G28" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H28" s="2">
         <v>0.84</v>
@@ -3551,13 +3857,13 @@
         <v>0.29063</v>
       </c>
       <c r="J28" s="5">
-        <v>0.912745553201984</v>
+        <v>0.91274555320198403</v>
       </c>
       <c r="K28" s="5">
-        <v>0.416203605514316</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0.41620360551431601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -3565,7 +3871,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>16</v>
@@ -3574,25 +3880,25 @@
         <v>15</v>
       </c>
       <c r="F29" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H29" s="2">
         <v>0.85</v>
       </c>
       <c r="I29" s="2">
-        <v>0.28517</v>
+        <v>0.28516999999999998</v>
       </c>
       <c r="J29" s="5">
-        <v>0.900494733482285</v>
+        <v>0.90049473348228504</v>
       </c>
       <c r="K29" s="5">
-        <v>0.329946977730646</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0.32994697773064602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -3600,7 +3906,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>16</v>
@@ -3609,25 +3915,25 @@
         <v>15</v>
       </c>
       <c r="F30" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G30" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H30" s="2">
         <v>0.86</v>
       </c>
       <c r="I30" s="2">
-        <v>0.29094</v>
+        <v>0.29093999999999998</v>
       </c>
       <c r="J30" s="5">
-        <v>0.917441894205379</v>
+        <v>0.91744189420537903</v>
       </c>
       <c r="K30" s="5">
         <v>0.443860021208907</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -3635,7 +3941,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>16</v>
@@ -3644,10 +3950,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G31" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H31" s="2">
         <v>0.85</v>
@@ -3656,13 +3962,13 @@
         <v>0.28314</v>
       </c>
       <c r="J31" s="5">
-        <v>0.919787888460087</v>
+        <v>0.91978788846008697</v>
       </c>
       <c r="K31" s="5">
-        <v>0.462269353128313</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0.46226935312831302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -3670,7 +3976,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>16</v>
@@ -3679,25 +3985,25 @@
         <v>15</v>
       </c>
       <c r="F32" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G32" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2">
         <v>0.84</v>
       </c>
       <c r="I32" s="2">
-        <v>0.2924</v>
+        <v>0.29239999999999999</v>
       </c>
       <c r="J32" s="5">
-        <v>0.911210573658706</v>
+        <v>0.91121057365870595</v>
       </c>
       <c r="K32" s="5">
-        <v>0.439300106044538</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0.43930010604453801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -3705,7 +4011,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>16</v>
@@ -3714,25 +4020,25 @@
         <v>15</v>
       </c>
       <c r="F33" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2">
         <v>0.84</v>
       </c>
       <c r="I33" s="2">
-        <v>0.28284</v>
+        <v>0.28283999999999998</v>
       </c>
       <c r="J33" s="5">
         <v>0.875933609958506</v>
       </c>
       <c r="K33" s="5">
-        <v>0.231855779427359</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0.23185577942735899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
@@ -3740,7 +4046,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>16</v>
@@ -3749,25 +4055,25 @@
         <v>15</v>
       </c>
       <c r="F34" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G34" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H34" s="2">
         <v>0.85</v>
       </c>
       <c r="I34" s="2">
-        <v>0.2885</v>
+        <v>0.28849999999999998</v>
       </c>
       <c r="J34" s="5">
-        <v>0.903090270725125</v>
+        <v>0.90309027072512504</v>
       </c>
       <c r="K34" s="5">
-        <v>0.348165429480381</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0.34816542948038098</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -3775,7 +4081,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>16</v>
@@ -3784,25 +4090,25 @@
         <v>15</v>
       </c>
       <c r="F35" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G35" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H35" s="2">
         <v>0.84</v>
       </c>
       <c r="I35" s="2">
-        <v>0.28409</v>
+        <v>0.28409000000000001</v>
       </c>
       <c r="J35" s="5">
-        <v>0.907396338101732</v>
+        <v>0.90739633810173204</v>
       </c>
       <c r="K35" s="5">
-        <v>0.382820784729586</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0.38282078472958597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -3810,7 +4116,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>16</v>
@@ -3819,25 +4125,25 @@
         <v>15</v>
       </c>
       <c r="F36" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G36" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H36" s="2">
         <v>0.84</v>
       </c>
       <c r="I36" s="2">
-        <v>0.29101</v>
+        <v>0.29100999999999999</v>
       </c>
       <c r="J36" s="5">
-        <v>0.910570757043785</v>
+        <v>0.91057075704378498</v>
       </c>
       <c r="K36" s="5">
-        <v>0.409459172852598</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0.40945917285259797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
@@ -3845,7 +4151,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>16</v>
@@ -3854,25 +4160,25 @@
         <v>15</v>
       </c>
       <c r="F37" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H37" s="2">
         <v>0.85</v>
       </c>
       <c r="I37" s="2">
-        <v>0.30575</v>
+        <v>0.30575000000000002</v>
       </c>
       <c r="J37" s="5">
-        <v>0.86601862867423</v>
+        <v>0.86601862867422996</v>
       </c>
       <c r="K37" s="5">
-        <v>0.223923647932131</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0.22392364793213099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -3880,7 +4186,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>16</v>
@@ -3889,25 +4195,25 @@
         <v>15</v>
       </c>
       <c r="F38" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G38" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H38" s="2">
         <v>0.85</v>
       </c>
       <c r="I38" s="2">
-        <v>0.32248</v>
+        <v>0.32247999999999999</v>
       </c>
       <c r="J38" s="5">
-        <v>0.900692046542668</v>
+        <v>0.90069204654266799</v>
       </c>
       <c r="K38" s="5">
-        <v>0.343838812301166</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0.34383881230116597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -3915,7 +4221,7 @@
         <v>26</v>
       </c>
       <c r="C39" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>16</v>
@@ -3924,25 +4230,25 @@
         <v>15</v>
       </c>
       <c r="F39" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G39" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H39" s="2">
         <v>0.84</v>
       </c>
       <c r="I39" s="2">
-        <v>0.3126</v>
+        <v>0.31259999999999999</v>
       </c>
       <c r="J39" s="5">
         <v>0.904368453123639</v>
       </c>
       <c r="K39" s="5">
-        <v>0.337412513255567</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0.33741251325556698</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -3950,7 +4256,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>16</v>
@@ -3959,25 +4265,25 @@
         <v>15</v>
       </c>
       <c r="F40" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G40" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H40" s="2">
         <v>0.83</v>
       </c>
       <c r="I40" s="2">
-        <v>0.3112</v>
+        <v>0.31119999999999998</v>
       </c>
       <c r="J40" s="5">
-        <v>0.908218959463772</v>
+        <v>0.90821895946377196</v>
       </c>
       <c r="K40" s="5">
-        <v>0.367826086956521</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0.36782608695652103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -3985,7 +4291,7 @@
         <v>26</v>
       </c>
       <c r="C41" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>16</v>
@@ -3994,25 +4300,25 @@
         <v>15</v>
       </c>
       <c r="F41" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H41" s="2">
         <v>0.86</v>
       </c>
       <c r="I41" s="2">
-        <v>0.31629</v>
+        <v>0.31629000000000002</v>
       </c>
       <c r="J41" s="5">
-        <v>0.909488436874329</v>
+        <v>0.90948843687432901</v>
       </c>
       <c r="K41" s="5">
-        <v>0.3684835630965</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0.36848356309649999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A42" s="18" t="s">
         <v>12</v>
       </c>
@@ -4020,7 +4326,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>16</v>
@@ -4029,25 +4335,25 @@
         <v>15</v>
       </c>
       <c r="F42" s="19">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G42" s="19">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H42" s="18">
         <v>0.86</v>
       </c>
       <c r="I42" s="18">
-        <v>0.32645</v>
+        <v>0.32645000000000002</v>
       </c>
       <c r="J42" s="5">
-        <v>0.915473116095522</v>
+        <v>0.91547311609552195</v>
       </c>
       <c r="K42" s="5">
-        <v>0.399618239660657</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0.39961823966065702</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
@@ -4055,7 +4361,7 @@
         <v>26</v>
       </c>
       <c r="C43" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>16</v>
@@ -4064,25 +4370,25 @@
         <v>15</v>
       </c>
       <c r="F43" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G43" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H43" s="2">
         <v>0.85</v>
       </c>
       <c r="I43" s="2">
-        <v>0.31845</v>
+        <v>0.31845000000000001</v>
       </c>
       <c r="J43" s="5">
-        <v>0.919483213881554</v>
+        <v>0.91948321388155396</v>
       </c>
       <c r="K43" s="5">
-        <v>0.424538706256627</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0.42453870625662699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>12</v>
       </c>
@@ -4090,7 +4396,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>16</v>
@@ -4099,25 +4405,25 @@
         <v>15</v>
       </c>
       <c r="F44" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G44" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H44" s="2">
         <v>0.84</v>
       </c>
       <c r="I44" s="2">
-        <v>0.31338</v>
+        <v>0.31337999999999999</v>
       </c>
       <c r="J44" s="5">
-        <v>0.921775527377187</v>
+        <v>0.92177552737718704</v>
       </c>
       <c r="K44" s="5">
-        <v>0.429119830328738</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0.42911983032873802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -4125,7 +4431,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>16</v>
@@ -4134,25 +4440,25 @@
         <v>15</v>
       </c>
       <c r="F45" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H45" s="2">
         <v>0.84</v>
       </c>
       <c r="I45" s="2">
-        <v>0.30554</v>
+        <v>0.30553999999999998</v>
       </c>
       <c r="J45" s="5">
         <v>0.860277689115863</v>
       </c>
       <c r="K45" s="5">
-        <v>0.221717921527041</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>0.22171792152704101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -4160,7 +4466,7 @@
         <v>26</v>
       </c>
       <c r="C46" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>16</v>
@@ -4169,25 +4475,25 @@
         <v>15</v>
       </c>
       <c r="F46" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H46" s="2">
         <v>0.85</v>
       </c>
       <c r="I46" s="2">
-        <v>0.32229</v>
+        <v>0.32229000000000002</v>
       </c>
       <c r="J46" s="5">
-        <v>0.902079041290659</v>
+        <v>0.90207904129065897</v>
       </c>
       <c r="K46" s="5">
-        <v>0.336458112407211</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>0.33645811240721102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>12</v>
       </c>
@@ -4195,7 +4501,7 @@
         <v>26</v>
       </c>
       <c r="C47" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>16</v>
@@ -4204,25 +4510,25 @@
         <v>15</v>
       </c>
       <c r="F47" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G47" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H47" s="2">
         <v>0.84</v>
       </c>
       <c r="I47" s="2">
-        <v>0.31224</v>
+        <v>0.31224000000000002</v>
       </c>
       <c r="J47" s="5">
         <v>0.904568667846676</v>
       </c>
       <c r="K47" s="5">
-        <v>0.340487804878048</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0.34048780487804797</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -4230,7 +4536,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>16</v>
@@ -4239,25 +4545,25 @@
         <v>15</v>
       </c>
       <c r="F48" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G48" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H48" s="2">
         <v>0.84</v>
       </c>
       <c r="I48" s="2">
-        <v>0.31449</v>
+        <v>0.31448999999999999</v>
       </c>
       <c r="J48" s="5">
-        <v>0.908070974668484</v>
+        <v>0.90807097466848397</v>
       </c>
       <c r="K48" s="5">
-        <v>0.372916224814422</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>0.37291622481442199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -4265,7 +4571,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>16</v>
@@ -4274,25 +4580,25 @@
         <v>15</v>
       </c>
       <c r="F49" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H49" s="2">
         <v>0.85</v>
       </c>
       <c r="I49" s="2">
-        <v>0.28725</v>
+        <v>0.28725000000000001</v>
       </c>
       <c r="J49" s="5">
-        <v>0.89411687897165</v>
+        <v>0.89411687897165004</v>
       </c>
       <c r="K49" s="5">
-        <v>0.31272534464475</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>0.31272534464474999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
@@ -4300,7 +4606,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>16</v>
@@ -4309,25 +4615,25 @@
         <v>15</v>
       </c>
       <c r="F50" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G50" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H50" s="2">
         <v>0.85</v>
       </c>
       <c r="I50" s="2">
-        <v>0.29714</v>
+        <v>0.29714000000000002</v>
       </c>
       <c r="J50" s="5">
-        <v>0.913312828250587</v>
+        <v>0.91331282825058702</v>
       </c>
       <c r="K50" s="5">
-        <v>0.416182396606574</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>0.41618239660657402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>12</v>
       </c>
@@ -4335,7 +4641,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>16</v>
@@ -4344,25 +4650,25 @@
         <v>15</v>
       </c>
       <c r="F51" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G51" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H51" s="2">
         <v>0.84</v>
       </c>
       <c r="I51" s="2">
-        <v>0.28899</v>
+        <v>0.28899000000000002</v>
       </c>
       <c r="J51" s="5">
-        <v>0.914041145576415</v>
+        <v>0.91404114557641503</v>
       </c>
       <c r="K51" s="5">
-        <v>0.417582184517497</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0.41758218451749701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>12</v>
       </c>
@@ -4370,7 +4676,7 @@
         <v>10</v>
       </c>
       <c r="C52" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>16</v>
@@ -4379,10 +4685,10 @@
         <v>15</v>
       </c>
       <c r="F52" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G52" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H52" s="2">
         <v>0.84</v>
@@ -4391,13 +4697,13 @@
         <v>0.29712</v>
       </c>
       <c r="J52" s="5">
-        <v>0.91180106200853</v>
+        <v>0.91180106200852995</v>
       </c>
       <c r="K52" s="5">
-        <v>0.447168610816542</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>0.44716861081654202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -4405,7 +4711,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>16</v>
@@ -4414,25 +4720,25 @@
         <v>15</v>
       </c>
       <c r="F53" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H53" s="2">
         <v>0.86</v>
       </c>
       <c r="I53" s="2">
-        <v>0.28751</v>
+        <v>0.28750999999999999</v>
       </c>
       <c r="J53" s="5">
-        <v>0.902071787134027</v>
+        <v>0.90207178713402703</v>
       </c>
       <c r="K53" s="5">
         <v>0.351092258748674</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
@@ -4440,7 +4746,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>16</v>
@@ -4449,25 +4755,25 @@
         <v>15</v>
       </c>
       <c r="F54" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G54" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H54" s="2">
         <v>0.86</v>
       </c>
       <c r="I54" s="2">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="J54" s="5">
-        <v>0.917080637205118</v>
+        <v>0.91708063720511801</v>
       </c>
       <c r="K54" s="5">
         <v>0.442566277836691</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -4475,7 +4781,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>16</v>
@@ -4484,25 +4790,25 @@
         <v>15</v>
       </c>
       <c r="F55" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G55" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H55" s="2">
         <v>0.85</v>
       </c>
       <c r="I55" s="2">
-        <v>0.28846</v>
+        <v>0.28845999999999999</v>
       </c>
       <c r="J55" s="5">
-        <v>0.920345007689406</v>
+        <v>0.92034500768940597</v>
       </c>
       <c r="K55" s="5">
-        <v>0.466193001060445</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>0.46619300106044498</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
@@ -4510,7 +4816,7 @@
         <v>10</v>
       </c>
       <c r="C56" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>16</v>
@@ -4519,25 +4825,25 @@
         <v>15</v>
       </c>
       <c r="F56" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G56" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H56" s="2">
         <v>0.84</v>
       </c>
       <c r="I56" s="2">
-        <v>0.2934</v>
+        <v>0.29339999999999999</v>
       </c>
       <c r="J56" s="5">
-        <v>0.916887676638714</v>
+        <v>0.91688767663871396</v>
       </c>
       <c r="K56" s="5">
-        <v>0.470646871686108</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>0.47064687168610803</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
@@ -4545,7 +4851,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>16</v>
@@ -4554,10 +4860,10 @@
         <v>15</v>
       </c>
       <c r="F57" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H57" s="2">
         <v>0.85</v>
@@ -4566,13 +4872,13 @@
         <v>0.2873</v>
       </c>
       <c r="J57" s="5">
-        <v>0.883856599831703</v>
+        <v>0.88385659983170295</v>
       </c>
       <c r="K57" s="5">
         <v>0.291898197242841</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -4580,7 +4886,7 @@
         <v>10</v>
       </c>
       <c r="C58" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>16</v>
@@ -4589,25 +4895,25 @@
         <v>15</v>
       </c>
       <c r="F58" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H58" s="2">
         <v>0.85</v>
       </c>
       <c r="I58" s="2">
-        <v>0.29788</v>
+        <v>0.29787999999999998</v>
       </c>
       <c r="J58" s="5">
         <v>0.911418042538374</v>
       </c>
       <c r="K58" s="5">
-        <v>0.415864262990455</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>0.41586426299045498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
@@ -4615,7 +4921,7 @@
         <v>10</v>
       </c>
       <c r="C59" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>16</v>
@@ -4624,25 +4930,25 @@
         <v>15</v>
       </c>
       <c r="F59" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G59" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H59" s="2">
         <v>0.84</v>
       </c>
       <c r="I59" s="2">
-        <v>0.28846</v>
+        <v>0.28845999999999999</v>
       </c>
       <c r="J59" s="5">
         <v>0.912765864840553</v>
       </c>
       <c r="K59" s="5">
-        <v>0.419321314952279</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>0.41932131495227898</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
@@ -4650,7 +4956,7 @@
         <v>10</v>
       </c>
       <c r="C60" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>16</v>
@@ -4659,25 +4965,25 @@
         <v>15</v>
       </c>
       <c r="F60" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G60" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H60" s="2">
         <v>0.84</v>
       </c>
       <c r="I60" s="2">
-        <v>0.2968</v>
+        <v>0.29680000000000001</v>
       </c>
       <c r="J60" s="5">
-        <v>0.915719757421002</v>
+        <v>0.91571975742100198</v>
       </c>
       <c r="K60" s="5">
-        <v>0.468801696712619</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>0.46880169671261901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>21</v>
       </c>
@@ -4685,7 +4991,7 @@
         <v>27</v>
       </c>
       <c r="C61" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>16</v>
@@ -4694,25 +5000,25 @@
         <v>15</v>
       </c>
       <c r="F61" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H61" s="2">
         <v>0.61</v>
       </c>
       <c r="I61" s="2">
-        <v>0.05794</v>
+        <v>5.7939999999999998E-2</v>
       </c>
       <c r="J61" s="5">
-        <v>0.66097844064649</v>
+        <v>0.66097844064649003</v>
       </c>
       <c r="K61" s="5">
-        <v>0.048016967126193</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>4.8016967126193001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>21</v>
       </c>
@@ -4720,7 +5026,7 @@
         <v>29</v>
       </c>
       <c r="C62" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>16</v>
@@ -4729,25 +5035,25 @@
         <v>15</v>
       </c>
       <c r="F62" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H62" s="2">
         <v>0.62</v>
       </c>
       <c r="I62" s="2">
-        <v>0.06059</v>
+        <v>6.0589999999999998E-2</v>
       </c>
       <c r="J62" s="5">
-        <v>0.574006905957113</v>
+        <v>0.57400690595711301</v>
       </c>
       <c r="K62" s="5">
-        <v>0.0326193001060445</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>3.2619300106044503E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
@@ -4755,7 +5061,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>16</v>
@@ -4764,25 +5070,25 @@
         <v>15</v>
       </c>
       <c r="F63" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G63" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H63" s="2">
         <v>0.6</v>
       </c>
       <c r="I63" s="2">
-        <v>0.0561</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="J63" s="5">
         <v>0.580080085889214</v>
       </c>
       <c r="K63" s="5">
-        <v>0.102120890774125</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>0.10212089077412501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>21</v>
       </c>
@@ -4790,7 +5096,7 @@
         <v>20</v>
       </c>
       <c r="C64" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>16</v>
@@ -4799,25 +5105,25 @@
         <v>15</v>
       </c>
       <c r="F64" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G64" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H64" s="2">
         <v>0.61</v>
       </c>
       <c r="I64" s="2">
-        <v>0.06481</v>
+        <v>6.4810000000000006E-2</v>
       </c>
       <c r="J64" s="5">
-        <v>0.660109392682006</v>
+        <v>0.66010939268200597</v>
       </c>
       <c r="K64" s="5">
         <v>0.107020148462354</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
@@ -4825,7 +5131,7 @@
         <v>27</v>
       </c>
       <c r="C65" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>16</v>
@@ -4834,25 +5140,25 @@
         <v>15</v>
       </c>
       <c r="F65" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H65" s="2">
         <v>0.8</v>
       </c>
       <c r="I65" s="2">
-        <v>0.27938</v>
+        <v>0.27938000000000002</v>
       </c>
       <c r="J65" s="5">
-        <v>0.908562806488117</v>
+        <v>0.90856280648811705</v>
       </c>
       <c r="K65" s="5">
-        <v>0.393213149522799</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>0.39321314952279901</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -4860,7 +5166,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>16</v>
@@ -4869,25 +5175,25 @@
         <v>15</v>
       </c>
       <c r="F66" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H66" s="2">
         <v>0.84</v>
       </c>
       <c r="I66" s="2">
-        <v>0.28276</v>
+        <v>0.28276000000000001</v>
       </c>
       <c r="J66" s="5">
-        <v>0.875671009488437</v>
+        <v>0.87567100948843701</v>
       </c>
       <c r="K66" s="5">
-        <v>0.234485683987274</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0.23448568398727401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>18</v>
       </c>
@@ -4895,7 +5201,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>16</v>
@@ -4904,25 +5210,25 @@
         <v>15</v>
       </c>
       <c r="F67" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G67" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H67" s="2">
         <v>0.85</v>
       </c>
       <c r="I67" s="2">
-        <v>0.3224</v>
+        <v>0.32240000000000002</v>
       </c>
       <c r="J67" s="5">
-        <v>0.901239009952702</v>
+        <v>0.90123900995270201</v>
       </c>
       <c r="K67" s="5">
         <v>0.341336161187698</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>18</v>
       </c>
@@ -4930,7 +5236,7 @@
         <v>20</v>
       </c>
       <c r="C68" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>16</v>
@@ -4939,19 +5245,19 @@
         <v>15</v>
       </c>
       <c r="F68" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G68" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H68" s="2">
         <v>0.83</v>
       </c>
       <c r="I68" s="2">
-        <v>0.29326</v>
+        <v>0.29326000000000002</v>
       </c>
       <c r="J68" s="5">
-        <v>0.916947160723094</v>
+        <v>0.91694716072309401</v>
       </c>
       <c r="K68" s="5">
         <v>0.432704135737009</v>
@@ -4962,6 +5268,6 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>